--- a/data/fractionation/test_fract_adjust/230321 Batch 142 Water Yr Summary.xlsx
+++ b/data/fractionation/test_fract_adjust/230321 Batch 142 Water Yr Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\test_fract_adjust\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA0617-C130-4A71-B76B-AD709CF240D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A9B968-F155-46C9-8B2F-ED860B1C52BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -1339,6 +1339,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1346,15 +1355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1874,7 +1874,7 @@
                   <c:v>0.24923127929471314</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45933187634156081</c:v>
+                  <c:v>0.309723254</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.27631601595311345</c:v>
@@ -6724,7 +6724,7 @@
                   <c:v>0.20651507901985763</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22939774411854019</c:v>
+                  <c:v>0.15875500100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9918,21 +9918,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" customWidth="1"/>
+    <col min="7" max="7" width="18.69140625" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="H6" s="50">
         <f>Summary!G26</f>
-        <v>89.983573046676838</v>
+        <v>89.833964424335278</v>
       </c>
       <c r="I6" s="111">
         <v>37</v>
@@ -10268,7 +10268,7 @@
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>44.976505834032885</v>
+        <v>44.905863090914345</v>
       </c>
       <c r="I13" s="111">
         <v>37</v>
@@ -10358,9 +10358,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -10975,9 +10975,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -11592,9 +11592,9 @@
       <selection activeCell="C2" sqref="C2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12208,9 +12208,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12824,9 +12824,9 @@
       <selection activeCell="C2" sqref="C2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13440,9 +13440,9 @@
       <selection activeCell="C2" sqref="C2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14056,9 +14056,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14584,9 +14584,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16331,9 +16331,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -16860,9 +16860,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -18602,23 +18602,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
   <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE45" sqref="AE45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.90625" style="56"/>
-    <col min="8" max="8" width="10.90625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="56"/>
+    <col min="1" max="1" width="9.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.921875" style="56"/>
+    <col min="8" max="8" width="10.921875" style="56" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" style="56"/>
     <col min="10" max="11" width="11" style="56" customWidth="1"/>
-    <col min="12" max="16384" width="10.90625" style="56"/>
+    <col min="12" max="16384" width="10.921875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13" thickTop="1">
+    <row r="1" spans="1:34" ht="12.9" thickTop="1">
       <c r="A1" s="62" t="s">
         <v>182</v>
       </c>
@@ -18759,61 +18759,61 @@
       <c r="A2" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="115" t="s">
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="115" t="s">
+      <c r="I2" s="113"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="112" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="112" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="112" t="s">
+      <c r="R2" s="116"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="U2" s="113"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="112" t="s">
+      <c r="U2" s="116"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="112" t="s">
+      <c r="X2" s="116"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="112" t="s">
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="112" t="s">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="114"/>
+      <c r="AG2" s="116"/>
+      <c r="AH2" s="117"/>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="62" t="s">
@@ -21211,7 +21211,7 @@
         <v>1.6490350319999987</v>
       </c>
       <c r="G22" s="74">
-        <v>0.45933187634156081</v>
+        <v>0.309723254</v>
       </c>
       <c r="H22" s="72" t="str">
         <f>'Tube C'!G20</f>
@@ -21414,7 +21414,7 @@
         <v>1.5223841480000022</v>
       </c>
       <c r="AB23" s="74">
-        <v>0.22939774411854019</v>
+        <v>0.15875500100000001</v>
       </c>
       <c r="AC23" s="72" t="str">
         <f>'Tube K'!G21</f>
@@ -21565,7 +21565,7 @@
         <v>6.4150138331487125E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="13" thickBot="1">
+    <row r="25" spans="1:34" ht="12.9" thickBot="1">
       <c r="A25" s="56">
         <v>22</v>
       </c>
@@ -21691,7 +21691,7 @@
         <v>2.6272519024251106E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="13" thickTop="1">
+    <row r="26" spans="1:34" ht="12.9" thickTop="1">
       <c r="B26" s="73"/>
       <c r="C26" s="81" t="s">
         <v>186</v>
@@ -21706,7 +21706,7 @@
       </c>
       <c r="G26" s="82">
         <f>SUM(G5:G25)*40/TubeLoading!J30*100</f>
-        <v>89.983573046676838</v>
+        <v>89.833964424335278</v>
       </c>
       <c r="H26" s="73"/>
       <c r="I26" s="81" t="s">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="AB26" s="91">
         <f>SUM(AB5:AB25)*40/TubeLoading!J38*100</f>
-        <v>44.976505834032885</v>
+        <v>44.905863090914345</v>
       </c>
       <c r="AC26" s="73"/>
       <c r="AD26" s="81" t="s">
@@ -21880,20 +21880,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21908,19 +21909,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
-    <col min="3" max="3" width="87.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.921875" customWidth="1"/>
+    <col min="2" max="2" width="8.921875" customWidth="1"/>
+    <col min="3" max="3" width="87.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50">
+    <row r="2" spans="1:6" ht="49.75">
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
@@ -21928,7 +21929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
+    <row r="3" spans="1:6" ht="15.9">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -21945,7 +21946,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="15.9">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -21962,7 +21963,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5">
+    <row r="5" spans="1:6" ht="15.45">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -21980,7 +21981,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5">
+    <row r="6" spans="1:6" ht="15.45">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -21997,7 +21998,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5">
+    <row r="7" spans="1:6" ht="15.45">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -22015,7 +22016,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5">
+    <row r="8" spans="1:6" ht="15.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -22032,7 +22033,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5">
+    <row r="9" spans="1:6" ht="15.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -22050,7 +22051,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="15.9">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -22068,7 +22069,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5">
+    <row r="11" spans="1:6" ht="15.45">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.9">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -22090,7 +22091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.9">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.9">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -22112,7 +22113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.9">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.9">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -22135,11 +22136,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5">
+    <row r="17" spans="1:4" ht="15.45">
       <c r="A17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.5">
+    <row r="18" spans="1:4" ht="15.45">
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
@@ -22148,7 +22149,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5">
+    <row r="19" spans="1:4" ht="15.45">
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
@@ -22157,7 +22158,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5">
+    <row r="20" spans="1:4" ht="15.45">
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
@@ -22166,126 +22167,126 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5">
+    <row r="22" spans="1:4" ht="15.45">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="15.5">
+    <row r="23" spans="1:4" ht="15.45">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="27" spans="1:4" ht="13">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.5">
+    <row r="28" spans="1:4" ht="15.45">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.5">
+    <row r="29" spans="1:4" ht="15.45">
       <c r="A29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.5">
+    <row r="30" spans="1:4" ht="15.45">
       <c r="A30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.5">
+    <row r="31" spans="1:4" ht="15.45">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.5">
+    <row r="32" spans="1:4" ht="15.45">
       <c r="A32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.5">
+    <row r="33" spans="1:12" ht="15.45">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.5">
+    <row r="34" spans="1:12" ht="15.45">
       <c r="A34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.5">
+    <row r="35" spans="1:12" ht="15.45">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.5">
+    <row r="36" spans="1:12" ht="15.45">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.5">
+    <row r="37" spans="1:12" ht="15.45">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.5">
+    <row r="38" spans="1:12" ht="15.45">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15.5">
+    <row r="39" spans="1:12" ht="15.45">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.5">
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.45">
       <c r="A40" s="17"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:12" ht="15.5">
+    <row r="41" spans="1:12" ht="15.45">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.5">
+    <row r="42" spans="1:12" ht="15.45">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15.5">
+    <row r="43" spans="1:12" ht="15.45">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15.5">
+    <row r="44" spans="1:12" ht="15.45">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15.5">
+    <row r="45" spans="1:12" ht="15.45">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15.5">
+    <row r="46" spans="1:12" ht="15.45">
       <c r="A46" s="3"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15.5">
+    <row r="47" spans="1:12" ht="15.45">
       <c r="C47" s="11"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="15.5">
+    <row r="48" spans="1:12" ht="15.45">
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.5">
+    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.45">
       <c r="C49" s="21"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="15.5">
+    <row r="50" spans="3:12" ht="15.45">
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="3:12">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="3:12" ht="15.5">
+    <row r="52" spans="3:12" ht="15.45">
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="3:12" ht="15.5">
+    <row r="53" spans="3:12" ht="15.45">
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="3:12" ht="15.5">
+    <row r="54" spans="3:12" ht="15.45">
       <c r="C54" s="11"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="3:12" ht="15.5">
+    <row r="55" spans="3:12" ht="15.45">
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:12">
@@ -22311,15 +22312,15 @@
       <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="12" width="11.36328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.3828125" customWidth="1"/>
+    <col min="13" max="13" width="12.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -22388,7 +22389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13">
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -22481,7 +22482,7 @@
         <v>5.2734670313399921</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="13">
+    <row r="19" spans="1:12">
       <c r="A19" s="31">
         <v>4.3</v>
       </c>
@@ -22723,7 +22724,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:12" ht="39">
+    <row r="28" spans="1:12" ht="37.299999999999997">
       <c r="A28" s="105" t="s">
         <v>43</v>
       </c>
@@ -22761,7 +22762,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14">
+    <row r="29" spans="1:12" ht="14.15">
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
@@ -22806,7 +22807,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14">
+    <row r="30" spans="1:12" ht="14.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -22851,7 +22852,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14">
+    <row r="31" spans="1:12" ht="14.15">
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
@@ -22896,7 +22897,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14">
+    <row r="32" spans="1:12" ht="14.15">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -22941,7 +22942,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14">
+    <row r="33" spans="1:12" ht="14.15">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -23031,7 +23032,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14">
+    <row r="35" spans="1:12" ht="14.15">
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
@@ -23076,7 +23077,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14">
+    <row r="36" spans="1:12" ht="14.15">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -23121,7 +23122,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14">
+    <row r="37" spans="1:12" ht="14.15">
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
@@ -23166,7 +23167,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14">
+    <row r="38" spans="1:12" ht="14.15">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -23211,7 +23212,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.5">
+    <row r="39" spans="1:12" ht="14.6">
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
@@ -23256,7 +23257,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="14.15">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -23301,7 +23302,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14">
+    <row r="41" spans="1:12" ht="14.15">
       <c r="A41" s="45" t="s">
         <v>33</v>
       </c>
@@ -23368,9 +23369,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -23985,9 +23986,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -24602,9 +24603,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25219,9 +25220,9 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25836,9 +25837,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -26453,9 +26454,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="12.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="26">
+    <row r="1" spans="1:13" ht="24.9">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
